--- a/Examples/AHP Ratings Lunch/LunchModel_Ratings_Table_filledin.xlsx
+++ b/Examples/AHP Ratings Lunch/LunchModel_Ratings_Table_filledin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/AHP Ratings Lunch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A4BC24-EF21-0A44-826F-5CAB8C263A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1769F717-82E3-8349-9CC5-EB2C62711C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2100" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rating_scales" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,7 +650,7 @@
       </c>
       <c r="H3" s="11">
         <f>G3/G7</f>
-        <v>0.46078431372549022</v>
+        <v>0.51621338912133896</v>
       </c>
       <c r="I3" s="11">
         <f>H3/MAX(H3:H7)</f>
@@ -662,7 +662,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <f>1/C3</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C4" s="7">
         <v>1</v>
@@ -676,15 +677,15 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10">
         <f>+B4+C4+D4+E4</f>
-        <v>12</v>
+        <v>11.555555555555555</v>
       </c>
       <c r="H4" s="11">
         <f>G4/G7</f>
-        <v>0.29411764705882354</v>
+        <v>0.3172942817294282</v>
       </c>
       <c r="I4" s="11">
         <f>H4/MAX(H3:H7)</f>
-        <v>0.63829787234042556</v>
+        <v>0.61465721040189125</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -692,10 +693,12 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>1</v>
+        <f>1/D3</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C5" s="12">
-        <v>1</v>
+        <f>1/D4</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -706,15 +709,15 @@
       <c r="F5" s="9"/>
       <c r="G5" s="10">
         <f>+B5+C5+D5+E5</f>
-        <v>6</v>
+        <v>4.4761904761904763</v>
       </c>
       <c r="H5" s="11">
         <f>G5/G7</f>
-        <v>0.14705882352941177</v>
+        <v>0.12290794979079499</v>
       </c>
       <c r="I5" s="11">
         <f>H5/MAX(H3:H7)</f>
-        <v>0.31914893617021278</v>
+        <v>0.23809523809523808</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -722,13 +725,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="12">
-        <v>1</v>
+        <f>1/E3</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C6" s="12">
-        <v>1</v>
+        <f>1/E4</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D6" s="12">
-        <v>1</v>
+        <f>1/E5</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -736,15 +742,15 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10">
         <f>+B6+C6+D6+E6</f>
-        <v>4</v>
+        <v>1.5873015873015872</v>
       </c>
       <c r="H6" s="11">
         <f>G6/G7</f>
-        <v>9.8039215686274522E-2</v>
+        <v>4.3584379358437939E-2</v>
       </c>
       <c r="I6" s="11">
         <f>H6/MAX(H3:H7)</f>
-        <v>0.21276595744680851</v>
+        <v>8.4430935494765283E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -753,15 +759,15 @@
       </c>
       <c r="B7" s="14">
         <f>SUM(B3:B6)</f>
-        <v>4</v>
+        <v>1.8095238095238095</v>
       </c>
       <c r="C7" s="14">
         <f>SUM(C3:C6)</f>
-        <v>4.8</v>
+        <v>3.2761904761904761</v>
       </c>
       <c r="D7" s="14">
         <f>SUM(D3:D6)</f>
-        <v>12</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="E7" s="14">
         <f>SUM(E3:E6)</f>
@@ -769,7 +775,7 @@
       </c>
       <c r="G7" s="10">
         <f>SUM(G3:G6)</f>
-        <v>40.799999999999997</v>
+        <v>36.419047619047618</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -778,7 +784,7 @@
       </c>
       <c r="H8" s="14">
         <f>((MMULT(B7:E7,H3:H6)-4)/(4-1))/0.89</f>
-        <v>1.1162517441433502</v>
+        <v>8.9236432144617073E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -846,6 +852,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="12">
+        <f>1/C12</f>
         <v>2</v>
       </c>
       <c r="C13" s="7">
@@ -873,9 +880,11 @@
         <v>14</v>
       </c>
       <c r="B14" s="12">
+        <f>1/D12</f>
         <v>1</v>
       </c>
       <c r="C14" s="12">
+        <f>1/D13</f>
         <v>0.5</v>
       </c>
       <c r="D14" s="7">
@@ -917,6 +926,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>6</v>
+      </c>
       <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
@@ -985,7 +997,7 @@
       </c>
       <c r="H20" s="11">
         <f>G20/G24</f>
-        <v>0.46078431372549022</v>
+        <v>0.51621338912133896</v>
       </c>
       <c r="I20" s="11">
         <f>H20/MAX(H20:H24)</f>
@@ -997,7 +1009,8 @@
         <v>2</v>
       </c>
       <c r="B21" s="12">
-        <v>1</v>
+        <f>1/C20</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -1011,15 +1024,15 @@
       <c r="F21" s="9"/>
       <c r="G21" s="10">
         <f>+B21+C21+D21+E21</f>
-        <v>12</v>
+        <v>11.555555555555555</v>
       </c>
       <c r="H21" s="11">
         <f>G21/G24</f>
-        <v>0.29411764705882354</v>
+        <v>0.3172942817294282</v>
       </c>
       <c r="I21" s="11">
         <f>H21/MAX(H20:H24)</f>
-        <v>0.63829787234042556</v>
+        <v>0.61465721040189125</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1027,10 +1040,12 @@
         <v>3</v>
       </c>
       <c r="B22" s="12">
-        <v>1</v>
+        <f>1/D20</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C22" s="12">
-        <v>1</v>
+        <f>1/D21</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
@@ -1041,15 +1056,15 @@
       <c r="F22" s="9"/>
       <c r="G22" s="10">
         <f>+B22+C22+D22+E22</f>
-        <v>6</v>
+        <v>4.4761904761904763</v>
       </c>
       <c r="H22" s="11">
         <f>G22/G24</f>
-        <v>0.14705882352941177</v>
+        <v>0.12290794979079499</v>
       </c>
       <c r="I22" s="11">
         <f>H22/MAX(H20:H24)</f>
-        <v>0.31914893617021278</v>
+        <v>0.23809523809523808</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1057,13 +1072,16 @@
         <v>4</v>
       </c>
       <c r="B23" s="12">
-        <v>1</v>
+        <f>1/E20</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C23" s="12">
-        <v>1</v>
+        <f>1/E21</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D23" s="12">
-        <v>1</v>
+        <f>1/E22</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E23" s="7">
         <v>1</v>
@@ -1071,15 +1089,15 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10">
         <f>+B23+C23+D23+E23</f>
-        <v>4</v>
+        <v>1.5873015873015872</v>
       </c>
       <c r="H23" s="11">
         <f>G23/G24</f>
-        <v>9.8039215686274522E-2</v>
+        <v>4.3584379358437939E-2</v>
       </c>
       <c r="I23" s="11">
         <f>H23/MAX(H20:H24)</f>
-        <v>0.21276595744680851</v>
+        <v>8.4430935494765283E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1088,15 +1106,15 @@
       </c>
       <c r="B24" s="14">
         <f>SUM(B20:B23)</f>
-        <v>4</v>
+        <v>1.8095238095238095</v>
       </c>
       <c r="C24" s="14">
         <f>SUM(C20:C23)</f>
-        <v>4.8</v>
+        <v>3.2761904761904761</v>
       </c>
       <c r="D24" s="14">
         <f>SUM(D20:D23)</f>
-        <v>12</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="E24" s="14">
         <f>SUM(E20:E23)</f>
@@ -1104,7 +1122,7 @@
       </c>
       <c r="G24" s="10">
         <f>SUM(G20:G23)</f>
-        <v>40.799999999999997</v>
+        <v>36.419047619047618</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1113,7 +1131,7 @@
       </c>
       <c r="H25" s="14">
         <f>((MMULT(B24:E24,H20:H23)-4)/(4-1))/0.89</f>
-        <v>1.1162517441433502</v>
+        <v>8.9236432144617073E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1169,7 +1187,7 @@
       </c>
       <c r="G29" s="11">
         <f>F29/F32</f>
-        <v>0.69565217391304346</v>
+        <v>0.77005347593582885</v>
       </c>
       <c r="H29" s="11">
         <f>G29/MAX(G29:G32)</f>
@@ -1181,7 +1199,8 @@
         <v>18</v>
       </c>
       <c r="B30" s="12">
-        <v>1</v>
+        <f>1/C29</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -1192,15 +1211,15 @@
       <c r="E30" s="9"/>
       <c r="F30" s="10">
         <f>+B30+C30+D30</f>
-        <v>4</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="G30" s="11">
         <f>F30/F32</f>
-        <v>0.17391304347826086</v>
+        <v>0.15240641711229946</v>
       </c>
       <c r="H30" s="11">
         <f>G30/MAX(G29:G32)</f>
-        <v>0.25</v>
+        <v>0.19791666666666669</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1208,10 +1227,12 @@
         <v>19</v>
       </c>
       <c r="B31" s="12">
-        <v>1</v>
+        <f>1/D29</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C31" s="12">
-        <v>1</v>
+        <f>1/D30</f>
+        <v>0.5</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -1219,15 +1240,15 @@
       <c r="E31" s="9"/>
       <c r="F31" s="10">
         <f>+B31+C31+D31</f>
-        <v>3</v>
+        <v>1.6111111111111112</v>
       </c>
       <c r="G31" s="11">
         <f>F31/F32</f>
-        <v>0.13043478260869565</v>
+        <v>7.7540106951871662E-2</v>
       </c>
       <c r="H31" s="11">
         <f>G31/MAX(G29:G32)</f>
-        <v>0.1875</v>
+        <v>0.10069444444444445</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1236,11 +1257,11 @@
       </c>
       <c r="B32" s="14">
         <f>SUM(B29:B31)</f>
-        <v>3</v>
+        <v>1.2777777777777779</v>
       </c>
       <c r="C32" s="14">
         <f>SUM(C29:C31)</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="D32" s="14">
         <f>SUM(D29:D31)</f>
@@ -1248,7 +1269,7 @@
       </c>
       <c r="F32" s="10">
         <f>SUM(F29:F31)</f>
-        <v>23</v>
+        <v>20.777777777777779</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.2">
@@ -1257,7 +1278,7 @@
       </c>
       <c r="G33" s="14">
         <f>((MMULT(B32:D32,G29:G31)-3)/(3-1))/0.52</f>
-        <v>1.964882943143812</v>
+        <v>5.5275606746195097E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1269,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1415,7 @@
       </c>
       <c r="B12" s="8">
         <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
-        <v>0.63829787234042556</v>
+        <v>0.61465721040189125</v>
       </c>
       <c r="C12" s="8">
         <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
@@ -1406,15 +1427,15 @@
       </c>
       <c r="E12" s="8">
         <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
-        <v>0.25</v>
+        <v>0.19791666666666669</v>
       </c>
       <c r="F12" s="19">
         <f>SUMPRODUCT(B12:E12,B10:E10)</f>
-        <v>0.56723906754958708</v>
+        <v>0.53757177915636423</v>
       </c>
       <c r="G12" s="20">
         <f>F12/SUM(F12:F14)</f>
-        <v>0.49738703223927183</v>
+        <v>0.55205566946940232</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1423,7 +1444,7 @@
       </c>
       <c r="B13" s="8">
         <f>INDEX(rating_scales!I3:I6, MATCH(B3,rating_scales!A3:A6, 0))</f>
-        <v>0.21276595744680851</v>
+        <v>8.4430935494765283E-2</v>
       </c>
       <c r="C13" s="8">
         <f>INDEX(rating_scales!H12:H14, MATCH(C3,rating_scales!A12:A14, 0))</f>
@@ -1431,19 +1452,19 @@
       </c>
       <c r="D13" s="8">
         <f>INDEX(rating_scales!I20:I23, MATCH(D3,rating_scales!A20:A23, 0))</f>
-        <v>0.21276595744680851</v>
+        <v>8.4430935494765283E-2</v>
       </c>
       <c r="E13" s="8">
         <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
-        <v>0.25</v>
+        <v>0.19791666666666669</v>
       </c>
       <c r="F13" s="19">
         <f>SUMPRODUCT(B13:E13,B10:E10)</f>
-        <v>0.26373398146842353</v>
+        <v>0.1850680519615987</v>
       </c>
       <c r="G13" s="20">
         <f>F13/SUM(F12:F14)</f>
-        <v>0.23125674842866664</v>
+        <v>0.1900543728009591</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1452,7 +1473,7 @@
       </c>
       <c r="B14" s="8">
         <f>INDEX(rating_scales!I3:I6, MATCH(B4,rating_scales!A3:A6, 0))</f>
-        <v>0.31914893617021278</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="C14" s="8">
         <f>INDEX(rating_scales!H12:H14, MATCH(C4,rating_scales!A12:A14, 0))</f>
@@ -1460,100 +1481,22 @@
       </c>
       <c r="D14" s="8">
         <f>INDEX(rating_scales!I20:I23, MATCH(D4,rating_scales!A20:A23, 0))</f>
-        <v>0.31914893617021278</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="E14" s="8">
         <f>INDEX(rating_scales!H29:H31, MATCH(E4,rating_scales!A29:A31, 0))</f>
-        <v>0.25</v>
+        <v>0.19791666666666669</v>
       </c>
       <c r="F14" s="19">
         <f>SUMPRODUCT(B14:E14,B10:E10)</f>
-        <v>0.30946494148575537</v>
+        <v>0.25112388309774469</v>
       </c>
       <c r="G14" s="20">
         <f>F14/SUM(F12:F14)</f>
-        <v>0.27135621933206144</v>
+        <v>0.25788995772963857</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A3:A6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A3:A6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A3:A6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A12:A14</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A12:A14</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000005000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A12:A14</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000006000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A20:A23</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000007000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A20:A23</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000008000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A20:A23</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000009000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A29:A31</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00000A000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A29:A31</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-00000B000000}">
-          <x14:formula1>
-            <xm:f>rating_scales!A29:A31</xm:f>
-          </x14:formula1>
-          <xm:sqref>E4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>